--- a/tasks/forms/app/mark_household_complete.xlsx
+++ b/tasks/forms/app/mark_household_complete.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2">
   <fileVersion appName="Calc"/>
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
@@ -207,7 +207,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -236,16 +236,13 @@
     <t xml:space="preserve">inputs</t>
   </si>
   <si>
-    <t xml:space="preserve">NO_LABEL</t>
-  </si>
-  <si>
     <t xml:space="preserve">false()</t>
   </si>
   <si>
     <t xml:space="preserve">contact</t>
   </si>
   <si>
-    <t xml:space="preserve">text</t>
+    <t xml:space="preserve">hidden</t>
   </si>
   <si>
     <t xml:space="preserve">_id</t>
@@ -790,7 +787,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C15" activeCellId="0" sqref="C15"/>
+      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -835,11 +832,8 @@
       <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -847,45 +841,36 @@
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>8</v>
@@ -893,13 +878,13 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -907,20 +892,20 @@
         <v>6</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="D12" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <conditionalFormatting sqref="A27:G9999 A26:B26 D26:G26 A2:G25">
+  <conditionalFormatting sqref="A27:G9999 A26:B26 D26:G26 A2:G25 C26">
     <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>$A2="begin_group"</formula>
     </cfRule>
@@ -942,36 +927,14 @@
       <formula>AND(ISBLANK(B2), NOT(ISBLANK($A2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C27:C9999 C2:C25">
+  <conditionalFormatting sqref="C27:C9999 C2:C25 C26">
     <cfRule type="expression" priority="8" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
-      <formula>AND(ISBLANK(C2),NOT(OR(ISBLANK($A2),$A2="calculate")))</formula>
+      <formula>AND(ISBLANK(C2),NOT(OR(ISBLANK($A2),$A2="calculate",$A2="hidden")),ISBLANK($F2))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F9999">
     <cfRule type="expression" priority="9" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>AND($A2="calculate", ISBLANK(F2))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C26">
-    <cfRule type="expression" priority="10" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>$A26="begin_group"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="11" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>$A26="end_group"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="12" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>$A26="begin_repeat"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="13" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
-      <formula>$A26="end_repeat"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="14" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
-      <formula>AND(ISBLANK($A26), NOT(ISBLANK(C26)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C26">
-    <cfRule type="expression" priority="15" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
-      <formula>AND(ISBLANK(C26),NOT(OR(ISBLANK($A26),$A26="calculate")))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
@@ -1020,37 +983,37 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="C1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>24</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>27</v>
       </c>
       <c r="C2" s="8" t="str">
         <f aca="true">TEXT(NOW(), "yyyymmddhhmmss")</f>
-        <v>20250602154907</v>
+        <v>20251119135242</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>28</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/tasks/forms/app/mark_household_complete.xlsx
+++ b/tasks/forms/app/mark_household_complete.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
@@ -159,9 +159,8 @@
             <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">The unique ID that identifies this form to tools that use it. It may not contain spaces and must start with a letter or underscore. You should use a short, descriptive name and can use underscores to separate words. 
-For example: bench_inventory_2021
-You can change the form_title as much as you would like but if you change the form_id, it will be considered a different form definition.</t>
+          <t xml:space="preserve">The unique version code that identifies the current state of the form. A common convention is to use a format like yyyymmddrr. For example, 2017021501 is the 1st revision from Feb 15th, 2017.
+By default, this template uses a formula to create a date-based version that will update automatically.</t>
         </r>
       </text>
     </comment>
@@ -173,24 +172,11 @@
             <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">The unique version code that identifies the current state of the form. A common convention is to use a format like yyyymmddrr. For example, 2017021501 is the 1st revision from Feb 15th, 2017.
-By default, this template uses a formula to create a date-based version that will update automatically.</t>
+          <t xml:space="preserve">Set to ‘pages’ to indicate that groups with the `field-list` appearance represent separate form pages (and all other questions will be shown on their own page). </t>
         </r>
       </text>
     </comment>
     <comment ref="D1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Set to ‘pages’ to indicate that groups with the `field-list` appearance represent separate form pages (and all other questions will be shown on their own page). </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -207,7 +193,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -272,9 +258,6 @@
     <t xml:space="preserve">form_title</t>
   </si>
   <si>
-    <t xml:space="preserve">form_id</t>
-  </si>
-  <si>
     <t xml:space="preserve">version</t>
   </si>
   <si>
@@ -285,9 +268,6 @@
   </si>
   <si>
     <t xml:space="preserve">Done adding members to household</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mark_household_complete</t>
   </si>
   <si>
     <t xml:space="preserve">pages</t>
@@ -905,7 +885,7 @@
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <conditionalFormatting sqref="A27:G9999 A26:B26 D26:G26 A2:G25 C26">
+  <conditionalFormatting sqref="A2:G9999">
     <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>$A2="begin_group"</formula>
     </cfRule>
@@ -927,7 +907,7 @@
       <formula>AND(ISBLANK(B2), NOT(ISBLANK($A2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C27:C9999 C2:C25 C26">
+  <conditionalFormatting sqref="C2:C9999">
     <cfRule type="expression" priority="8" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>AND(ISBLANK(C2),NOT(OR(ISBLANK($A2),$A2="calculate",$A2="hidden")),ISBLANK($F2))</formula>
     </cfRule>
@@ -967,18 +947,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="6" width="17.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="6" width="16.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="6" width="16.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="6" width="32.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="6" width="16.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="6" width="32.61"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -994,26 +973,20 @@
       <c r="D1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="7" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="8" t="str">
+        <f aca="true">TEXT(NOW(), "yyyymmddhhmmss")</f>
+        <v>20260114093008</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="C2" s="8" t="str">
-        <f aca="true">TEXT(NOW(), "yyyymmddhhmmss")</f>
-        <v>20251119135242</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/tasks/forms/app/mark_household_complete.xlsx
+++ b/tasks/forms/app/mark_household_complete.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
@@ -159,9 +159,8 @@
             <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">The unique ID that identifies this form to tools that use it. It may not contain spaces and must start with a letter or underscore. You should use a short, descriptive name and can use underscores to separate words. 
-For example: bench_inventory_2021
-You can change the form_title as much as you would like but if you change the form_id, it will be considered a different form definition.</t>
+          <t xml:space="preserve">The unique version code that identifies the current state of the form. A common convention is to use a format like yyyymmddrr. For example, 2017021501 is the 1st revision from Feb 15th, 2017.
+By default, this template uses a formula to create a date-based version that will update automatically.</t>
         </r>
       </text>
     </comment>
@@ -173,24 +172,11 @@
             <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">The unique version code that identifies the current state of the form. A common convention is to use a format like yyyymmddrr. For example, 2017021501 is the 1st revision from Feb 15th, 2017.
-By default, this template uses a formula to create a date-based version that will update automatically.</t>
+          <t xml:space="preserve">Set to ‘pages’ to indicate that groups with the `field-list` appearance represent separate form pages (and all other questions will be shown on their own page). </t>
         </r>
       </text>
     </comment>
     <comment ref="D1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Set to ‘pages’ to indicate that groups with the `field-list` appearance represent separate form pages (and all other questions will be shown on their own page). </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -207,7 +193,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -236,16 +222,13 @@
     <t xml:space="preserve">inputs</t>
   </si>
   <si>
-    <t xml:space="preserve">NO_LABEL</t>
-  </si>
-  <si>
     <t xml:space="preserve">false()</t>
   </si>
   <si>
     <t xml:space="preserve">contact</t>
   </si>
   <si>
-    <t xml:space="preserve">text</t>
+    <t xml:space="preserve">hidden</t>
   </si>
   <si>
     <t xml:space="preserve">_id</t>
@@ -275,9 +258,6 @@
     <t xml:space="preserve">form_title</t>
   </si>
   <si>
-    <t xml:space="preserve">form_id</t>
-  </si>
-  <si>
     <t xml:space="preserve">version</t>
   </si>
   <si>
@@ -288,9 +268,6 @@
   </si>
   <si>
     <t xml:space="preserve">Done adding members to household</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mark_household_complete</t>
   </si>
   <si>
     <t xml:space="preserve">pages</t>
@@ -790,7 +767,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C15" activeCellId="0" sqref="C15"/>
+      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -835,11 +812,8 @@
       <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -847,45 +821,36 @@
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>8</v>
@@ -893,13 +858,13 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -907,20 +872,20 @@
         <v>6</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="D12" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <conditionalFormatting sqref="A27:G9999 A26:B26 D26:G26 A2:G25">
+  <conditionalFormatting sqref="A2:G9999">
     <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>$A2="begin_group"</formula>
     </cfRule>
@@ -942,36 +907,14 @@
       <formula>AND(ISBLANK(B2), NOT(ISBLANK($A2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C27:C9999 C2:C25">
+  <conditionalFormatting sqref="C2:C9999">
     <cfRule type="expression" priority="8" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
-      <formula>AND(ISBLANK(C2),NOT(OR(ISBLANK($A2),$A2="calculate")))</formula>
+      <formula>AND(ISBLANK(C2),NOT(OR(ISBLANK($A2),$A2="calculate",$A2="hidden")),ISBLANK($F2))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F9999">
     <cfRule type="expression" priority="9" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>AND($A2="calculate", ISBLANK(F2))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C26">
-    <cfRule type="expression" priority="10" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>$A26="begin_group"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="11" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>$A26="end_group"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="12" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>$A26="begin_repeat"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="13" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
-      <formula>$A26="end_repeat"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="14" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
-      <formula>AND(ISBLANK($A26), NOT(ISBLANK(C26)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C26">
-    <cfRule type="expression" priority="15" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
-      <formula>AND(ISBLANK(C26),NOT(OR(ISBLANK($A26),$A26="calculate")))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
@@ -1004,53 +947,46 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="6" width="17.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="6" width="16.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="6" width="16.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="6" width="32.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="6" width="16.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="6" width="32.61"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="C1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>23</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="8" t="str">
+        <f aca="true">TEXT(NOW(), "yyyymmddhhmmss")</f>
+        <v>20260114093008</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="8" t="str">
-        <f aca="true">TEXT(NOW(), "yyyymmddhhmmss")</f>
-        <v>20250602154907</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
